--- a/GameAssets/Tables/develop/Bullet.xlsx
+++ b/GameAssets/Tables/develop/Bullet.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="子弹&amp;Bullet" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -643,12 +643,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,17 +973,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/GameAssets/Tables/develop/Bullet.xlsx
+++ b/GameAssets/Tables/develop/Bullet.xlsx
@@ -16,18 +16,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>主键</t>
   </si>
   <si>
+    <t>预制体</t>
+  </si>
+  <si>
+    <t>战斗数据</t>
+  </si>
+  <si>
+    <t>飞行速度</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>prefab</t>
+  </si>
+  <si>
+    <t>attackValue</t>
+  </si>
+  <si>
+    <t>speedValue</t>
+  </si>
+  <si>
     <t>20000</t>
+  </si>
+  <si>
+    <t>Bullet_Normal</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
 </sst>
 </file>
@@ -961,35 +994,74 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GameAssets/Tables/develop/Bullet.xlsx
+++ b/GameAssets/Tables/develop/Bullet.xlsx
@@ -997,7 +997,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1005,7 +1005,8 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="25.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="27.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
